--- a/ExecutionTestData/7/TestData.xlsx
+++ b/ExecutionTestData/7/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_workspace5\DBS_Automation\ExecutionTestData\12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\TestDataNew\ExecutionTestData\7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="148">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -461,15 +461,6 @@
     <t>EndPoint</t>
   </si>
   <si>
-    <t>iWEALTH</t>
-  </si>
-  <si>
-    <t>NSTRAX15</t>
-  </si>
-  <si>
-    <t>425455</t>
-  </si>
-  <si>
     <t>NSTRAX10</t>
   </si>
   <si>
@@ -488,16 +479,10 @@
     <t>https://us.pcloudy.com</t>
   </si>
   <si>
-    <t>APPLE_iPhone13mini_iOS_15.2.0_22426</t>
-  </si>
-  <si>
-    <t>15.2.0</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneSE2020_iOS_13.6.1_4989f</t>
-  </si>
-  <si>
-    <t>13.6.1</t>
+    <t>APPLE_iPhone8_iOS_14.0.1_aa631</t>
+  </si>
+  <si>
+    <t>14.0.1</t>
   </si>
 </sst>
 </file>
@@ -547,7 +532,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,12 +543,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
@@ -631,7 +610,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -681,7 +660,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1082,7 +1060,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1132,7 +1110,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1179,138 +1157,107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>141</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>142</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="18">
         <v>1</v>
       </c>
-      <c r="C9" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" orientation="portrait" r:id="rId1"/>
@@ -1412,7 +1359,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
@@ -1477,7 +1424,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1593,7 +1540,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>62</v>
       </c>
       <c r="B12" t="s">
@@ -1619,7 +1566,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="21"/>
       <c r="B13">
         <v>121212</v>
       </c>

--- a/ExecutionTestData/7/TestData.xlsx
+++ b/ExecutionTestData/7/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\ExecutionTestData\SkippedRerunBatches2\7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\ExecutionTestData\SkippedRerunBatches2\12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="160">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>AppName</t>
-  </si>
-  <si>
-    <t>DBS</t>
   </si>
   <si>
     <t>S2021219EUID</t>
@@ -452,15 +449,9 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
-    <t>11.0.0</t>
-  </si>
-  <si>
     <t>EndPoint</t>
   </si>
   <si>
-    <t>https://device.pcloudy.com</t>
-  </si>
-  <si>
     <t>Samsung</t>
   </si>
   <si>
@@ -473,49 +464,61 @@
     <t>121212</t>
   </si>
   <si>
-    <t>10.0.0</t>
-  </si>
-  <si>
-    <t>8.0.0</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyM10_Android_10.0.0_a58e4</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyOnMax_Android_8.1.0_85564</t>
-  </si>
-  <si>
-    <t>MOTOROLA_MotoG5_Android_8.1.0_c3d6c</t>
-  </si>
-  <si>
-    <t>XIAOMI_Redmi6_Android_9.0.0_ed157</t>
-  </si>
-  <si>
-    <t>XIAOMI_RedmiNote9_Android_10.0.0_a7454</t>
-  </si>
-  <si>
-    <t>MOTOROLA_MotoE7Power_Android_10.0.0_a2201</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyM01_Android_11.0.0_7425f</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyJ4_Android_10.0.0_889f0</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyJ6_Android_10.0.0_482da</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyJ7Prime_Android_8.1.0_78777</t>
-  </si>
-  <si>
-    <t>OPPO_A3s_Android_8.1.0_37894</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyS7_Android_8.0.0_301a4</t>
-  </si>
-  <si>
-    <t>ONEPLUS_NordCE_Android_11.0.0_99096</t>
+    <t>DBS</t>
+  </si>
+  <si>
+    <t>15.0.0</t>
+  </si>
+  <si>
+    <t>14.1.0</t>
+  </si>
+  <si>
+    <t>14.7.1</t>
+  </si>
+  <si>
+    <t>13.5.1</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneX_iOS_13.5.1_5640f</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone8_iOS_14.1.0_81551</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone12mini_iOS_14.7.1_eaf14</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone13Pro_iOS_15.2.0_2d8ea</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone11ProMax_iOS_14.4.2_de1da</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneSE2020_iOS_13.6.1_4989f</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneSE_iOS_14.6.0_9d61f</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone13mini_iOS_15.2.0_22426</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone13_iOS_15.0.0_ad341</t>
+  </si>
+  <si>
+    <t>15.2.0</t>
+  </si>
+  <si>
+    <t>14.4.2</t>
+  </si>
+  <si>
+    <t>13.6.1</t>
+  </si>
+  <si>
+    <t>14.6.0</t>
+  </si>
+  <si>
+    <t>https://us.pcloudy.com</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1006,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1088,7 +1091,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1115,13 +1118,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>70</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>21</v>
@@ -1138,7 +1141,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1165,13 +1168,13 @@
         <v>5</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="O3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>21</v>
@@ -1185,32 +1188,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="43.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
@@ -1241,140 +1238,95 @@
       <c r="J1" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="K1" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>141</v>
-      </c>
       <c r="E2" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="H4" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>45</v>
@@ -1382,211 +1334,136 @@
       <c r="J4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1617,67 +1494,37 @@
       <c r="J9" s="18">
         <v>9</v>
       </c>
-      <c r="K9" s="18">
-        <v>10</v>
-      </c>
-      <c r="L9" s="18">
-        <v>11</v>
-      </c>
-      <c r="M9" s="18">
-        <v>12</v>
-      </c>
-      <c r="N9" s="18">
-        <v>13</v>
-      </c>
-      <c r="O9" s="18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1782,67 +1629,67 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>43</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>44</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>45</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>46</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>48</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>49</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>50</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>51</v>
-      </c>
-      <c r="U2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1910,32 +1757,32 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1963,28 +1810,28 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
         <v>60</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>61</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>62</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>64</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>65</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>66</v>
-      </c>
-      <c r="H12" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -2013,32 +1860,32 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2066,327 +1913,327 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
